--- a/GET-AIvsGET.xlsx
+++ b/GET-AIvsGET.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$252</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:D251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1156,7 +1156,7 @@
         <v>253</v>
       </c>
       <c r="D2">
-        <v>36.5</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1184,12 +1184,12 @@
         <v>253</v>
       </c>
       <c r="D4">
-        <v>19.8</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>320</v>
@@ -1198,12 +1198,12 @@
         <v>253</v>
       </c>
       <c r="D5">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>315</v>
@@ -1212,7 +1212,7 @@
         <v>253</v>
       </c>
       <c r="D6">
-        <v>5.4</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1226,12 +1226,12 @@
         <v>253</v>
       </c>
       <c r="D7">
-        <v>74.099999999999994</v>
+        <v>34.799999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>310</v>
@@ -1240,12 +1240,12 @@
         <v>253</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>310</v>
@@ -1254,12 +1254,12 @@
         <v>253</v>
       </c>
       <c r="D9">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>310</v>
@@ -1268,12 +1268,12 @@
         <v>253</v>
       </c>
       <c r="D10">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>310</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>305</v>
@@ -1296,12 +1296,12 @@
         <v>253</v>
       </c>
       <c r="D12">
-        <v>17.899999999999999</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>305</v>
@@ -1310,12 +1310,12 @@
         <v>253</v>
       </c>
       <c r="D13">
-        <v>10.3</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>295</v>
@@ -1324,12 +1324,12 @@
         <v>253</v>
       </c>
       <c r="D14">
-        <v>18.100000000000001</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>295</v>
@@ -1338,12 +1338,12 @@
         <v>253</v>
       </c>
       <c r="D15">
-        <v>10.3</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>295</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>290</v>
@@ -1366,12 +1366,12 @@
         <v>253</v>
       </c>
       <c r="D17">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>290</v>
@@ -1380,12 +1380,12 @@
         <v>253</v>
       </c>
       <c r="D18">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>285</v>
@@ -1394,7 +1394,7 @@
         <v>253</v>
       </c>
       <c r="D19">
-        <v>10.6</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1427,7 +1427,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>270</v>
@@ -1436,12 +1436,12 @@
         <v>253</v>
       </c>
       <c r="D22">
-        <v>13.3</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>255</v>
@@ -1450,12 +1450,12 @@
         <v>253</v>
       </c>
       <c r="D23">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24">
         <v>255</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B25">
         <v>255</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B26">
         <v>255</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>250</v>
@@ -1534,12 +1534,12 @@
         <v>253</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30">
         <v>250</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B31">
         <v>250</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B33">
         <v>240</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B36">
         <v>240</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42">
         <v>230</v>
@@ -1716,7 +1716,7 @@
         <v>253</v>
       </c>
       <c r="D42">
-        <v>16.899999999999999</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1735,7 +1735,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B44">
         <v>230</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B49">
         <v>225</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B50">
         <v>220</v>
@@ -1828,12 +1828,12 @@
         <v>253</v>
       </c>
       <c r="D50">
-        <v>12.1</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B51">
         <v>220</v>
@@ -1842,12 +1842,12 @@
         <v>253</v>
       </c>
       <c r="D51">
-        <v>11.5</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B52">
         <v>220</v>
@@ -1856,7 +1856,7 @@
         <v>253</v>
       </c>
       <c r="D52">
-        <v>9.8000000000000007</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1870,12 +1870,12 @@
         <v>253</v>
       </c>
       <c r="D53">
-        <v>9.8000000000000007</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B54">
         <v>220</v>
@@ -1884,7 +1884,7 @@
         <v>253</v>
       </c>
       <c r="D54">
-        <v>9.6999999999999993</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1898,12 +1898,12 @@
         <v>253</v>
       </c>
       <c r="D55">
-        <v>8.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B56">
         <v>220</v>
@@ -1912,12 +1912,12 @@
         <v>253</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B57">
         <v>220</v>
@@ -1926,12 +1926,12 @@
         <v>253</v>
       </c>
       <c r="D57">
-        <v>7.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B58">
         <v>220</v>
@@ -1940,12 +1940,12 @@
         <v>253</v>
       </c>
       <c r="D58">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B59">
         <v>220</v>
@@ -1954,12 +1954,12 @@
         <v>253</v>
       </c>
       <c r="D59">
-        <v>5.5</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B60">
         <v>220</v>
@@ -1968,12 +1968,12 @@
         <v>254</v>
       </c>
       <c r="D60">
-        <v>4.4000000000000004</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B61">
         <v>220</v>
@@ -1982,7 +1982,7 @@
         <v>253</v>
       </c>
       <c r="D61">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2020,7 +2020,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B65">
         <v>220</v>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B68">
         <v>215</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B70">
         <v>215</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B71">
         <v>215</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B74">
         <v>210</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B75">
         <v>210</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B76">
         <v>210</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B83">
         <v>205</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B84">
         <v>205</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B87">
         <v>205</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B88">
         <v>205</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B91">
         <v>200</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
         <v>200</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B99">
         <v>195</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B100">
         <v>195</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B102">
         <v>195</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B105">
         <v>195</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B109">
         <v>190</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B111">
         <v>190</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B113">
         <v>190</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B118">
         <v>180</v>
@@ -2621,12 +2621,12 @@
         <v>253</v>
       </c>
       <c r="D118">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B119">
         <v>180</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B122">
         <v>180</v>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B123">
         <v>180</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B125">
         <v>180</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B132">
         <v>180</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B133">
         <v>180</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B134">
         <v>180</v>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B135">
         <v>180</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B136">
         <v>180</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B137">
         <v>180</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B138">
         <v>180</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B139">
         <v>180</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B140">
         <v>180</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B142">
         <v>180</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B148">
         <v>180</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B150">
         <v>180</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B151">
         <v>180</v>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B157">
         <v>180</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B161">
         <v>180</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B167">
         <v>179</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B170">
         <v>170</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B175">
         <v>165</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B177">
         <v>165</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B188">
         <v>150</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B190">
         <v>150</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B191">
         <v>150</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B192">
         <v>150</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B202">
         <v>150</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B218">
         <v>150</v>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B219">
         <v>150</v>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B220">
         <v>150</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B230">
         <v>140</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B231">
         <v>140</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B232">
         <v>140</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B244">
         <v>120</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B246">
         <v>120</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B247">
         <v>120</v>
@@ -4112,9 +4112,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B251">
-    <sortState ref="A2:E251">
-      <sortCondition descending="1" ref="B1:B251"/>
+  <autoFilter ref="B1:B252">
+    <sortState ref="A2:D252">
+      <sortCondition descending="1" ref="B1:B252"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
